--- a/Лаба номер — копия (2)/ZPL_1_98.xlsx
+++ b/Лаба номер — копия (2)/ZPL_1_98.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Иван\Desktop\лабы\ITlabs1course\Лаба номер — копия (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79224\Documents\GitHub\Лаба номер — копия (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="11835" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="11832" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Расчет заработной платы за январь 1998 года</t>
   </si>
@@ -325,7 +325,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -334,6 +333,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Заголовок 2" xfId="1"/>
@@ -560,7 +560,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -674,7 +674,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -788,7 +788,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -903,7 +903,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16249872"/>
@@ -953,7 +953,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="55456121"/>
@@ -991,7 +991,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16249872"/>
@@ -1021,7 +1021,7 @@
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1185,7 +1185,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1299,7 +1299,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1413,7 +1413,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1528,7 +1528,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="3789317"/>
@@ -1578,7 +1578,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39085767"/>
@@ -1616,7 +1616,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="3789317"/>
@@ -1646,7 +1646,7 @@
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1810,7 +1810,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1924,7 +1924,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2038,7 +2038,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2153,7 +2153,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="64558268"/>
@@ -2203,7 +2203,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="33265119"/>
@@ -2241,7 +2241,7 @@
                 <a:ea typeface="DejaVu Sans"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="64558268"/>
@@ -2271,7 +2271,7 @@
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2485,6 +2485,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
@@ -2498,7 +2499,7 @@
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2515,6 +2516,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C1C3-4A19-AA9F-0662250E2FA4}"/>
@@ -2523,6 +2525,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
@@ -2536,7 +2539,7 @@
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2553,6 +2556,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C1C3-4A19-AA9F-0662250E2FA4}"/>
@@ -2561,6 +2565,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
@@ -2574,7 +2579,7 @@
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2591,6 +2596,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C1C3-4A19-AA9F-0662250E2FA4}"/>
@@ -2599,6 +2605,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
@@ -2612,7 +2619,7 @@
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2629,6 +2636,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-C1C3-4A19-AA9F-0662250E2FA4}"/>
@@ -2637,6 +2645,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:spPr/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
@@ -2650,7 +2659,7 @@
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -2667,6 +2676,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-C1C3-4A19-AA9F-0662250E2FA4}"/>
@@ -2693,7 +2703,7 @@
                     <a:ea typeface="DejaVu Sans"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2796,7 +2806,7 @@
               <a:ea typeface="DejaVu Sans"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3070,26 +3080,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
-    <col min="2" max="11" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="9.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3097,7 +3107,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3132,8 +3142,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3173,8 +3183,8 @@
         <v>82.415520000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3214,8 +3224,8 @@
         <v>304.48439999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -3255,8 +3265,8 @@
         <v>262.62719999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3296,8 +3306,8 @@
         <v>371.5668</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3337,20 +3347,25 @@
         <v>546.93935999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="7">
         <v>83.49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3363,6 +3378,14 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
+  <cellWatches>
+    <cellWatch r="F3"/>
+    <cellWatch r="G3"/>
+    <cellWatch r="H3"/>
+    <cellWatch r="I3"/>
+    <cellWatch r="J3"/>
+    <cellWatch r="K3"/>
+  </cellWatches>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3375,13 +3398,13 @@
       <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
-    <col min="2" max="11" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="11" width="9.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -3398,7 +3421,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3433,8 +3456,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -3474,8 +3497,8 @@
         <v>104.36976</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -3516,8 +3539,8 @@
         <v>363.29040000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
         <f>A4+1</f>
         <v>3</v>
       </c>
@@ -3558,8 +3581,8 @@
         <v>327.49200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <f>A5+1</f>
         <v>4</v>
       </c>
@@ -3600,8 +3623,8 @@
         <v>444.74759999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <f>A6+1</f>
         <v>5</v>
       </c>
@@ -3642,16 +3665,16 @@
         <v>659.84687999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="22">
         <v>83.49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="22">
@@ -3677,13 +3700,13 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="11" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="11" width="9.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -3700,7 +3723,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3735,8 +3758,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -3776,8 +3799,8 @@
         <v>102.80736</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -3818,8 +3841,8 @@
         <v>365.63400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
         <f>A4+1</f>
         <v>3</v>
       </c>
@@ -3860,8 +3883,8 @@
         <v>324.36720000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <f>A5+1</f>
         <v>4</v>
       </c>
@@ -3902,8 +3925,8 @@
         <v>447.09119999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <f>A6+1</f>
         <v>5</v>
       </c>
@@ -3944,7 +3967,7 @@
         <v>661.40927999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>24</v>
       </c>
@@ -3952,7 +3975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
@@ -3976,17 +3999,17 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>26</v>
       </c>
@@ -3996,7 +4019,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -4016,8 +4039,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -4040,8 +4063,8 @@
         <v>24.039359999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -4065,8 +4088,8 @@
         <v>35.791200000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
         <f>A4+1</f>
         <v>3</v>
       </c>
@@ -4090,8 +4113,8 @@
         <v>12.153599999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <f>A5+1</f>
         <v>4</v>
       </c>
@@ -4115,8 +4138,8 @@
         <v>67.154399999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <f>A6+1</f>
         <v>5</v>
       </c>
